--- a/SchedulingData/dynamic16/pso/scheduling1_20.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling1_20.xlsx
@@ -462,135 +462,135 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>78.54000000000001</v>
+        <v>48.96</v>
       </c>
       <c r="E2" t="n">
-        <v>25.296</v>
+        <v>26.784</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>71.22</v>
+        <v>52.22</v>
       </c>
       <c r="E3" t="n">
-        <v>27.008</v>
+        <v>25.968</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>71.22</v>
+        <v>52.22</v>
       </c>
       <c r="D4" t="n">
-        <v>118.02</v>
+        <v>117.42</v>
       </c>
       <c r="E4" t="n">
-        <v>23.968</v>
+        <v>23.528</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>68.08</v>
+        <v>68.2</v>
       </c>
       <c r="E5" t="n">
-        <v>26.352</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>78.54000000000001</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>151.44</v>
+        <v>98.54000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>21.136</v>
+        <v>25.296</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>45.7</v>
+        <v>62.4</v>
       </c>
       <c r="E7" t="n">
-        <v>26.62</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>45.7</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>104.12</v>
+        <v>54.78</v>
       </c>
       <c r="E8" t="n">
-        <v>22.408</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="9">
@@ -599,36 +599,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>151.44</v>
+        <v>62.4</v>
       </c>
       <c r="D9" t="n">
-        <v>204.86</v>
+        <v>118.32</v>
       </c>
       <c r="E9" t="n">
-        <v>16.924</v>
+        <v>23.928</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>104.12</v>
+        <v>68.2</v>
       </c>
       <c r="D10" t="n">
-        <v>149.32</v>
+        <v>127.2</v>
       </c>
       <c r="E10" t="n">
-        <v>19.028</v>
+        <v>22.54</v>
       </c>
     </row>
     <row r="11">
@@ -641,132 +641,132 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>149.32</v>
+        <v>98.54000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>208.48</v>
+        <v>162.6</v>
       </c>
       <c r="E11" t="n">
-        <v>15.232</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>162.6</v>
       </c>
       <c r="D12" t="n">
-        <v>62.22</v>
+        <v>230.6</v>
       </c>
       <c r="E12" t="n">
-        <v>27.448</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>204.86</v>
+        <v>54.78</v>
       </c>
       <c r="D13" t="n">
-        <v>284.66</v>
+        <v>109.88</v>
       </c>
       <c r="E13" t="n">
-        <v>14.044</v>
+        <v>22.812</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>118.02</v>
+        <v>117.42</v>
       </c>
       <c r="D14" t="n">
-        <v>181.62</v>
+        <v>159.22</v>
       </c>
       <c r="E14" t="n">
-        <v>20.728</v>
+        <v>20.488</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>181.62</v>
+        <v>48.96</v>
       </c>
       <c r="D15" t="n">
-        <v>233.72</v>
+        <v>95.78</v>
       </c>
       <c r="E15" t="n">
-        <v>17.648</v>
+        <v>24.232</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>109.88</v>
       </c>
       <c r="D16" t="n">
-        <v>40</v>
+        <v>144.38</v>
       </c>
       <c r="E16" t="n">
-        <v>26.7</v>
+        <v>20.492</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>68.08</v>
+        <v>118.32</v>
       </c>
       <c r="D17" t="n">
-        <v>112.06</v>
+        <v>174.62</v>
       </c>
       <c r="E17" t="n">
-        <v>24.064</v>
+        <v>19.428</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -774,13 +774,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>208.48</v>
+        <v>174.62</v>
       </c>
       <c r="D18" t="n">
-        <v>246.56</v>
+        <v>232.6</v>
       </c>
       <c r="E18" t="n">
-        <v>12.064</v>
+        <v>16.26</v>
       </c>
     </row>
     <row r="19">
@@ -789,17 +789,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>246.56</v>
+        <v>230.6</v>
       </c>
       <c r="D19" t="n">
-        <v>290.94</v>
+        <v>278.3</v>
       </c>
       <c r="E19" t="n">
-        <v>9.256</v>
+        <v>13.66</v>
       </c>
     </row>
     <row r="20">
@@ -808,17 +808,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>62.22</v>
+        <v>144.38</v>
       </c>
       <c r="D20" t="n">
-        <v>132.2</v>
+        <v>197.74</v>
       </c>
       <c r="E20" t="n">
-        <v>23.08</v>
+        <v>17.276</v>
       </c>
     </row>
     <row r="21">
@@ -827,112 +827,112 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>112.06</v>
+        <v>159.22</v>
       </c>
       <c r="D21" t="n">
-        <v>168.82</v>
+        <v>201.32</v>
       </c>
       <c r="E21" t="n">
-        <v>20.008</v>
+        <v>17.408</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>168.82</v>
+        <v>127.2</v>
       </c>
       <c r="D22" t="n">
-        <v>249.78</v>
+        <v>182.4</v>
       </c>
       <c r="E22" t="n">
-        <v>16.032</v>
+        <v>18.16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>249.78</v>
+        <v>182.4</v>
       </c>
       <c r="D23" t="n">
-        <v>304.88</v>
+        <v>243.46</v>
       </c>
       <c r="E23" t="n">
-        <v>11.652</v>
+        <v>14.184</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>233.72</v>
+        <v>232.6</v>
       </c>
       <c r="D24" t="n">
-        <v>283.48</v>
+        <v>276.3</v>
       </c>
       <c r="E24" t="n">
-        <v>14.792</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>284.66</v>
+        <v>95.78</v>
       </c>
       <c r="D25" t="n">
-        <v>337.4</v>
+        <v>149.3</v>
       </c>
       <c r="E25" t="n">
-        <v>9.9</v>
+        <v>20.02</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>283.48</v>
+        <v>197.74</v>
       </c>
       <c r="D26" t="n">
-        <v>328.38</v>
+        <v>259.3</v>
       </c>
       <c r="E26" t="n">
-        <v>11.432</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="27">
@@ -941,17 +941,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>290.94</v>
+        <v>278.3</v>
       </c>
       <c r="D27" t="n">
-        <v>353.34</v>
+        <v>343.18</v>
       </c>
       <c r="E27" t="n">
-        <v>6.136</v>
+        <v>9.292</v>
       </c>
     </row>
     <row r="28">
@@ -960,131 +960,131 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>40</v>
+        <v>149.3</v>
       </c>
       <c r="D28" t="n">
-        <v>94.40000000000001</v>
+        <v>228.9</v>
       </c>
       <c r="E28" t="n">
-        <v>23.4</v>
+        <v>16.66</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>353.34</v>
+        <v>243.46</v>
       </c>
       <c r="D29" t="n">
-        <v>415.44</v>
+        <v>306.86</v>
       </c>
       <c r="E29" t="n">
-        <v>3.016</v>
+        <v>10.944</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>415.44</v>
+        <v>259.3</v>
       </c>
       <c r="D30" t="n">
-        <v>476.41</v>
+        <v>323.76</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>9.923999999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>476.41</v>
+        <v>323.76</v>
       </c>
       <c r="D31" t="n">
-        <v>568.27</v>
+        <v>379.1</v>
       </c>
       <c r="E31" t="n">
-        <v>25.464</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>132.2</v>
+        <v>228.9</v>
       </c>
       <c r="D32" t="n">
-        <v>192.84</v>
+        <v>264.1</v>
       </c>
       <c r="E32" t="n">
-        <v>20.616</v>
+        <v>13.78</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>192.84</v>
+        <v>343.18</v>
       </c>
       <c r="D33" t="n">
-        <v>245.52</v>
+        <v>403.8</v>
       </c>
       <c r="E33" t="n">
-        <v>16.968</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>304.88</v>
+        <v>276.3</v>
       </c>
       <c r="D34" t="n">
-        <v>372.38</v>
+        <v>332.22</v>
       </c>
       <c r="E34" t="n">
-        <v>8.012</v>
+        <v>10.028</v>
       </c>
     </row>
     <row r="35">
@@ -1093,93 +1093,93 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>245.52</v>
+        <v>379.1</v>
       </c>
       <c r="D35" t="n">
-        <v>304.88</v>
+        <v>418.96</v>
       </c>
       <c r="E35" t="n">
-        <v>14.152</v>
+        <v>4.164</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>337.4</v>
+        <v>403.8</v>
       </c>
       <c r="D36" t="n">
-        <v>413.3</v>
+        <v>451.68</v>
       </c>
       <c r="E36" t="n">
-        <v>5.4</v>
+        <v>2.212</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>568.27</v>
+        <v>201.32</v>
       </c>
       <c r="D37" t="n">
-        <v>616.63</v>
+        <v>269.52</v>
       </c>
       <c r="E37" t="n">
-        <v>22.248</v>
+        <v>13.208</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>94.40000000000001</v>
+        <v>269.52</v>
       </c>
       <c r="D38" t="n">
-        <v>162.76</v>
+        <v>342.16</v>
       </c>
       <c r="E38" t="n">
-        <v>20.184</v>
+        <v>9.064</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>304.88</v>
+        <v>306.86</v>
       </c>
       <c r="D39" t="n">
-        <v>374.18</v>
+        <v>370.38</v>
       </c>
       <c r="E39" t="n">
-        <v>11.312</v>
+        <v>6.732</v>
       </c>
     </row>
     <row r="40">
@@ -1188,74 +1188,74 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>162.76</v>
+        <v>264.1</v>
       </c>
       <c r="D40" t="n">
-        <v>205.26</v>
+        <v>347.78</v>
       </c>
       <c r="E40" t="n">
-        <v>17.064</v>
+        <v>11.492</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>413.3</v>
+        <v>347.78</v>
       </c>
       <c r="D41" t="n">
-        <v>454.52</v>
+        <v>392.58</v>
       </c>
       <c r="E41" t="n">
-        <v>2.408</v>
+        <v>8.651999999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>328.38</v>
+        <v>392.58</v>
       </c>
       <c r="D42" t="n">
-        <v>422.88</v>
+        <v>424.18</v>
       </c>
       <c r="E42" t="n">
-        <v>7.052</v>
+        <v>6.132</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>422.88</v>
+        <v>342.16</v>
       </c>
       <c r="D43" t="n">
-        <v>459.38</v>
+        <v>396.42</v>
       </c>
       <c r="E43" t="n">
-        <v>4.532</v>
+        <v>5.268</v>
       </c>
     </row>
     <row r="44">
@@ -1264,112 +1264,112 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>205.26</v>
+        <v>424.18</v>
       </c>
       <c r="D44" t="n">
-        <v>275.88</v>
+        <v>494.16</v>
       </c>
       <c r="E44" t="n">
-        <v>13.632</v>
+        <v>1.764</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>459.38</v>
+        <v>494.16</v>
       </c>
       <c r="D45" t="n">
-        <v>493.98</v>
+        <v>577.4299999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>2.212</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>275.88</v>
+        <v>418.96</v>
       </c>
       <c r="D46" t="n">
-        <v>344.92</v>
+        <v>488.56</v>
       </c>
       <c r="E46" t="n">
-        <v>10.848</v>
+        <v>0.784</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>344.92</v>
+        <v>488.56</v>
       </c>
       <c r="D47" t="n">
-        <v>395.62</v>
+        <v>558.99</v>
       </c>
       <c r="E47" t="n">
-        <v>8.407999999999999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>395.62</v>
+        <v>558.99</v>
       </c>
       <c r="D48" t="n">
-        <v>449.98</v>
+        <v>620.03</v>
       </c>
       <c r="E48" t="n">
-        <v>4.612</v>
+        <v>27.536</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>372.38</v>
+        <v>370.38</v>
       </c>
       <c r="D49" t="n">
-        <v>425.68</v>
+        <v>458.4</v>
       </c>
       <c r="E49" t="n">
-        <v>3.812</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="50">
@@ -1378,17 +1378,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>449.98</v>
+        <v>577.4299999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>519.66</v>
+        <v>635.33</v>
       </c>
       <c r="E50" t="n">
-        <v>0.244</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="51">
@@ -1397,302 +1397,302 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>519.66</v>
+        <v>635.33</v>
       </c>
       <c r="D51" t="n">
-        <v>600.87</v>
+        <v>701.91</v>
       </c>
       <c r="E51" t="n">
-        <v>30</v>
+        <v>23.352</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>454.52</v>
+        <v>620.03</v>
       </c>
       <c r="D52" t="n">
-        <v>526.7</v>
+        <v>677.33</v>
       </c>
       <c r="E52" t="n">
-        <v>30</v>
+        <v>23.936</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>526.7</v>
+        <v>458.4</v>
       </c>
       <c r="D53" t="n">
-        <v>595.14</v>
+        <v>520.36</v>
       </c>
       <c r="E53" t="n">
-        <v>27.296</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>616.63</v>
+        <v>520.36</v>
       </c>
       <c r="D54" t="n">
-        <v>692.77</v>
+        <v>592.62</v>
       </c>
       <c r="E54" t="n">
-        <v>18.764</v>
+        <v>25.944</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>600.87</v>
+        <v>332.22</v>
       </c>
       <c r="D55" t="n">
-        <v>657.95</v>
+        <v>401.82</v>
       </c>
       <c r="E55" t="n">
-        <v>26.472</v>
+        <v>6.648</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493.98</v>
+        <v>401.82</v>
       </c>
       <c r="D56" t="n">
-        <v>561.46</v>
+        <v>459.02</v>
       </c>
       <c r="E56" t="n">
-        <v>30</v>
+        <v>3.528</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>561.46</v>
+        <v>396.42</v>
       </c>
       <c r="D57" t="n">
-        <v>650.08</v>
+        <v>444.76</v>
       </c>
       <c r="E57" t="n">
-        <v>25.788</v>
+        <v>2.564</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>650.08</v>
+        <v>444.76</v>
       </c>
       <c r="D58" t="n">
-        <v>713.58</v>
+        <v>536.03</v>
       </c>
       <c r="E58" t="n">
-        <v>22.068</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>374.18</v>
+        <v>536.03</v>
       </c>
       <c r="D59" t="n">
-        <v>435.9</v>
+        <v>610.27</v>
       </c>
       <c r="E59" t="n">
-        <v>7.28</v>
+        <v>27.216</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435.9</v>
+        <v>451.68</v>
       </c>
       <c r="D60" t="n">
-        <v>509</v>
+        <v>533.86</v>
       </c>
       <c r="E60" t="n">
-        <v>3.08</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>425.68</v>
+        <v>533.86</v>
       </c>
       <c r="D61" t="n">
-        <v>479.18</v>
+        <v>597.66</v>
       </c>
       <c r="E61" t="n">
-        <v>0.572</v>
+        <v>26.28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>479.18</v>
+        <v>597.66</v>
       </c>
       <c r="D62" t="n">
-        <v>559.74</v>
+        <v>656.66</v>
       </c>
       <c r="E62" t="n">
-        <v>30</v>
+        <v>22.98</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>509</v>
+        <v>610.27</v>
       </c>
       <c r="D63" t="n">
-        <v>566</v>
+        <v>704.0700000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>23.916</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>566</v>
+        <v>459.02</v>
       </c>
       <c r="D64" t="n">
-        <v>672.4</v>
+        <v>521.12</v>
       </c>
       <c r="E64" t="n">
-        <v>30</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>559.74</v>
+        <v>521.12</v>
       </c>
       <c r="D65" t="n">
-        <v>609.74</v>
+        <v>587.3</v>
       </c>
       <c r="E65" t="n">
-        <v>26.7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>692.77</v>
+        <v>592.62</v>
       </c>
       <c r="D66" t="n">
-        <v>759.67</v>
+        <v>638.76</v>
       </c>
       <c r="E66" t="n">
-        <v>15.164</v>
+        <v>22.46</v>
       </c>
     </row>
     <row r="67">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>595.14</v>
+        <v>587.3</v>
       </c>
       <c r="D67" t="n">
-        <v>645.48</v>
+        <v>655.38</v>
       </c>
       <c r="E67" t="n">
-        <v>24.392</v>
+        <v>26.352</v>
       </c>
     </row>
   </sheetData>
